--- a/OWASP-CyBOK/CyBOK_OWASP_Final ICSE.xlsx
+++ b/OWASP-CyBOK/CyBOK_OWASP_Final ICSE.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ja21121/Documents/Security Champions/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ja21121/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14271D33-A41B-B946-BCC7-8F838E5B618F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32B094D5-CDFE-024E-84CD-6944A6E588F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6640" yWindow="1600" windowWidth="35260" windowHeight="24380" xr2:uid="{ADDCBAF3-63BD-1A48-9391-D7D185ED38CD}"/>
+    <workbookView xWindow="6620" yWindow="1600" windowWidth="35260" windowHeight="24380" xr2:uid="{ADDCBAF3-63BD-1A48-9391-D7D185ED38CD}"/>
   </bookViews>
   <sheets>
     <sheet name="CyBOK OWASP Final " sheetId="2" r:id="rId1"/>
@@ -3177,7 +3177,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3498,10 +3498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C442C26A-D246-834A-8B54-EB46F8FDD3A7}">
-  <dimension ref="A1:D959"/>
+  <dimension ref="A1:F952"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="191" zoomScaleNormal="191" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3510,9 +3510,10 @@
     <col min="2" max="2" width="18.6640625" customWidth="1"/>
     <col min="3" max="3" width="17.83203125" customWidth="1"/>
     <col min="4" max="4" width="18.83203125" customWidth="1"/>
+    <col min="6" max="6" width="21.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3526,7 +3527,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>2</v>
@@ -3537,8 +3538,11 @@
       <c r="D2" s="7" t="s">
         <v>976</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="F2" s="9" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>5</v>
@@ -3549,8 +3553,11 @@
       <c r="D3" s="7" t="s">
         <v>977</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="F3" s="9" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
         <v>7</v>
@@ -3561,8 +3568,11 @@
       <c r="D4" s="7" t="s">
         <v>978</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="F4" s="9" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
         <v>9</v>
@@ -3574,7 +3584,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
         <v>11</v>
@@ -3586,7 +3596,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
         <v>13</v>
@@ -3598,7 +3608,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
         <v>16</v>
@@ -3610,7 +3620,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
         <v>17</v>
@@ -3622,7 +3632,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
         <v>18</v>
@@ -3634,7 +3644,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
         <v>19</v>
@@ -3646,7 +3656,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
         <v>22</v>
@@ -3658,7 +3668,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
         <v>23</v>
@@ -3670,7 +3680,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
         <v>24</v>
@@ -3682,7 +3692,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
         <v>27</v>
@@ -3694,7 +3704,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
         <v>28</v>
@@ -14936,21 +14946,6 @@
         <v>982</v>
       </c>
     </row>
-    <row r="957" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D957" s="9" t="s">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="958" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D958" s="9" t="s">
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="959" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D959" s="9" t="s">
-        <v>1009</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/OWASP-CyBOK/CyBOK_OWASP_Final ICSE.xlsx
+++ b/OWASP-CyBOK/CyBOK_OWASP_Final ICSE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ja21121/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32B094D5-CDFE-024E-84CD-6944A6E588F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AFCA896-4A1F-FC49-8439-62CD15425DAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6620" yWindow="1600" windowWidth="35260" windowHeight="24380" xr2:uid="{ADDCBAF3-63BD-1A48-9391-D7D185ED38CD}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2859" uniqueCount="1010">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2893" uniqueCount="1044">
   <si>
     <t>question_id</t>
   </si>
@@ -3061,13 +3061,115 @@
   </si>
   <si>
     <t>NIC = Not in CyBOK</t>
+  </si>
+  <si>
+    <t>A01 - Broken Access Control</t>
+  </si>
+  <si>
+    <t>A02 - Cryptographic Failure</t>
+  </si>
+  <si>
+    <t>A03 - Injection</t>
+  </si>
+  <si>
+    <t>A04 - Insecure Design</t>
+  </si>
+  <si>
+    <t>A05 - Security Misconfiguration</t>
+  </si>
+  <si>
+    <t>A06 - Vulnerable and Outdated Components</t>
+  </si>
+  <si>
+    <t>A07 - Identification and Authentication Failures</t>
+  </si>
+  <si>
+    <t>A08 - Software and Data Integrity Failures</t>
+  </si>
+  <si>
+    <t>A09 - Security Logging and Monitoring Failures</t>
+  </si>
+  <si>
+    <t>A10 - Server Side Request Forgery</t>
+  </si>
+  <si>
+    <t>OWASP Top Ten Risks 2021</t>
+  </si>
+  <si>
+    <t>CyBOK Knowledge Area</t>
+  </si>
+  <si>
+    <t>Authentication, Authorisation &amp; Accountability (AAA)</t>
+  </si>
+  <si>
+    <t>Applied Cryptography (AC)</t>
+  </si>
+  <si>
+    <t>Adversarial Behavior (AB)</t>
+  </si>
+  <si>
+    <t>Cryptography (C)</t>
+  </si>
+  <si>
+    <t>CyBOK Introduction (CI)</t>
+  </si>
+  <si>
+    <t>Cyber Physical Systems (CPS)</t>
+  </si>
+  <si>
+    <t>Distributed Systems Security (DSS)</t>
+  </si>
+  <si>
+    <t>Forensics (F)</t>
+  </si>
+  <si>
+    <t>Formal Methods for Security (FMS)</t>
+  </si>
+  <si>
+    <t>Human Factors (HF)</t>
+  </si>
+  <si>
+    <t>Hardware Security (HS)</t>
+  </si>
+  <si>
+    <t>Law and Regulation (LR)</t>
+  </si>
+  <si>
+    <t>Malware &amp; Attack Technologies (MAT)</t>
+  </si>
+  <si>
+    <t>Network Security (NS)</t>
+  </si>
+  <si>
+    <t>Operating Systems &amp; Virtualization (OSV)</t>
+  </si>
+  <si>
+    <t>Physical Layer &amp; Telecommunications Security (PLT)</t>
+  </si>
+  <si>
+    <t>Privacy &amp; Online Rights (POR)</t>
+  </si>
+  <si>
+    <t>Risk Management &amp; Governance (RMG)</t>
+  </si>
+  <si>
+    <t>Security Operations &amp; Incident Management (SOIM)</t>
+  </si>
+  <si>
+    <t>Software Security (SS)</t>
+  </si>
+  <si>
+    <t>Secure Software Lifecycle (SSL)</t>
+  </si>
+  <si>
+    <t>Web &amp; Mobile Security (WAM)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3086,6 +3188,13 @@
     <font>
       <sz val="12"/>
       <color rgb="FF1D1C1D"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF212327"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3150,7 +3259,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3178,6 +3287,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3498,10 +3622,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C442C26A-D246-834A-8B54-EB46F8FDD3A7}">
-  <dimension ref="A1:F952"/>
+  <dimension ref="A1:H952"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="191" zoomScaleNormal="191" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" zoomScale="178" zoomScaleNormal="178" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3511,9 +3635,11 @@
     <col min="3" max="3" width="17.83203125" customWidth="1"/>
     <col min="4" max="4" width="18.83203125" customWidth="1"/>
     <col min="6" max="6" width="21.1640625" customWidth="1"/>
+    <col min="7" max="7" width="27.5" customWidth="1"/>
+    <col min="8" max="8" width="26.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3526,8 +3652,14 @@
       <c r="D1" s="5" t="s">
         <v>975</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="G1" s="10" t="s">
+        <v>1020</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>2</v>
@@ -3541,8 +3673,14 @@
       <c r="F2" s="9" t="s">
         <v>1007</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="G2" s="11" t="s">
+        <v>1010</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>5</v>
@@ -3556,8 +3694,14 @@
       <c r="F3" s="9" t="s">
         <v>1008</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="G3" s="11" t="s">
+        <v>1011</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
         <v>7</v>
@@ -3571,8 +3715,14 @@
       <c r="F4" s="9" t="s">
         <v>1009</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G4" s="11" t="s">
+        <v>1012</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
         <v>9</v>
@@ -3583,8 +3733,14 @@
       <c r="D5" s="7" t="s">
         <v>979</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G5" s="11" t="s">
+        <v>1013</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
         <v>11</v>
@@ -3595,8 +3751,14 @@
       <c r="D6" s="7" t="s">
         <v>976</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G6" s="11" t="s">
+        <v>1014</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
         <v>13</v>
@@ -3607,8 +3769,14 @@
       <c r="D7" s="7" t="s">
         <v>976</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G7" s="11" t="s">
+        <v>1015</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
         <v>16</v>
@@ -3619,8 +3787,14 @@
       <c r="D8" s="7" t="s">
         <v>976</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G8" s="11" t="s">
+        <v>1016</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
         <v>17</v>
@@ -3631,8 +3805,14 @@
       <c r="D9" s="7" t="s">
         <v>980</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G9" s="11" t="s">
+        <v>1017</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
         <v>18</v>
@@ -3643,8 +3823,14 @@
       <c r="D10" s="7" t="s">
         <v>976</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G10" s="11" t="s">
+        <v>1018</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
         <v>19</v>
@@ -3655,8 +3841,14 @@
       <c r="D11" s="7" t="s">
         <v>976</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G11" s="11" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
         <v>22</v>
@@ -3667,8 +3859,11 @@
       <c r="D12" s="7" t="s">
         <v>979</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="H12" s="13" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
         <v>23</v>
@@ -3679,8 +3874,11 @@
       <c r="D13" s="7" t="s">
         <v>977</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="H13" s="13" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
         <v>24</v>
@@ -3691,8 +3889,11 @@
       <c r="D14" s="7" t="s">
         <v>981</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="H14" s="13" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
         <v>27</v>
@@ -3703,8 +3904,11 @@
       <c r="D15" s="7" t="s">
         <v>978</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="H15" s="13" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
         <v>28</v>
@@ -3715,8 +3919,11 @@
       <c r="D16" s="7" t="s">
         <v>982</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="H16" s="13" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="2" t="s">
         <v>29</v>
@@ -3727,8 +3934,11 @@
       <c r="D17" s="7" t="s">
         <v>982</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="H17" s="13" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="2" t="s">
         <v>30</v>
@@ -3739,8 +3949,11 @@
       <c r="D18" s="7" t="s">
         <v>983</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="H18" s="13" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="2" t="s">
         <v>32</v>
@@ -3751,8 +3964,11 @@
       <c r="D19" s="7" t="s">
         <v>977</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="H19" s="13" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="B20" s="2" t="s">
         <v>34</v>
@@ -3763,8 +3979,11 @@
       <c r="D20" s="7" t="s">
         <v>984</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="H20" s="13" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
       <c r="B21" s="2" t="s">
         <v>36</v>
@@ -3775,8 +3994,11 @@
       <c r="D21" s="7" t="s">
         <v>985</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="H21" s="13" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="B22" s="2" t="s">
         <v>38</v>
@@ -3787,8 +4009,11 @@
       <c r="D22" s="7" t="s">
         <v>985</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="H22" s="13" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" s="2" t="s">
         <v>39</v>
@@ -3799,8 +4024,11 @@
       <c r="D23" s="7" t="s">
         <v>982</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="H23" s="13" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
       <c r="B24" s="2" t="s">
         <v>41</v>
@@ -3812,7 +4040,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
       <c r="B25" s="2" t="s">
         <v>42</v>
@@ -3824,7 +4052,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
       <c r="B26" s="2" t="s">
         <v>43</v>
@@ -3836,7 +4064,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
       <c r="B27" s="2" t="s">
         <v>44</v>
@@ -3848,7 +4076,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
       <c r="B28" s="2" t="s">
         <v>45</v>
@@ -3860,7 +4088,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
       <c r="B29" s="2" t="s">
         <v>46</v>
@@ -3872,7 +4100,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
       <c r="B30" s="2" t="s">
         <v>49</v>
@@ -3884,7 +4112,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
       <c r="B31" s="2" t="s">
         <v>50</v>
@@ -3896,7 +4124,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
       <c r="B32" s="2" t="s">
         <v>51</v>
